--- a/other_assignments/SQL_Practical_Test_Updated_Answers.xlsx
+++ b/other_assignments/SQL_Practical_Test_Updated_Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rakesh\Personal\Jitendra\GIT\Temp\a836-pts-access\other_assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3BED07-2E98-48E9-9735-963D9175A5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B8A6F8-8DD4-422D-92F0-D76E26E2C9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16446" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16448" uniqueCount="59">
   <si>
     <r>
       <rPr>
@@ -289,10 +289,6 @@
     <t>Like :-</t>
   </si>
   <si>
-    <t>ALTER TABLE Employee
-ADD Salary Varchar(5);</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -340,13 +336,7 @@
     </r>
   </si>
   <si>
-    <t>SELECT COUNT(DISTINCT salary) FROM employee;</t>
-  </si>
-  <si>
     <t>9. Return All Employee Record where not Connected with Department Table.</t>
-  </si>
-  <si>
-    <t>Select * from Employee e Rightjoin Depatment d on e.empid=d.empid;</t>
   </si>
   <si>
     <t>10. Select [Department ID], [Department Name] , [Employee Count] Who’s Employee Connected</t>
@@ -418,9 +408,6 @@
     <t>13. Write an SQL query to fetch the Departments that have less than 5 employee people in them.</t>
   </si>
   <si>
-    <t>SELECT emp_department.dpt_name FROM emp_details INNER JOIN emp_department ON emp_dept =dpt_code GROUP BY emp_department.dpt_name HAVING COUNT(*) &gt; 2;</t>
-  </si>
-  <si>
     <t>14. Select All Employee Table List With [Department Name]</t>
   </si>
   <si>
@@ -439,15 +426,6 @@
   </si>
   <si>
     <t>15. Delete Duplicate Salary Record From Employee Table.</t>
-  </si>
-  <si>
-    <t>delete from Employee 
-where ID not in
-(
-    select min(ID)
-    from Employee 
-    group by EmployeeName 
-);</t>
   </si>
   <si>
     <t xml:space="preserve">CREATE TABLE Employee  
@@ -478,13 +456,53 @@
     <t xml:space="preserve">UPDATE Employee  
 SET Departmentid =CONCAT('00',FLOOR(EmployeeID/25)+1)  </t>
   </si>
+  <si>
+    <t xml:space="preserve">ALTER PROCEDURE [dbo].[AccountsData]  
+    @Start_Date datetime,
+    @End_Date datetime
+AS
+     DECLARE @Counter datetime 
+    SET @Counter=@Start_Date
+  WHILE ( @Counter &lt;= @End_Date)
+  BEGIN
+    PRINT 'The date value is = ' + CONVERT(VARCHAR,@Counter)
+    SET @Counter  = @Counter  + 1
+  END
+BEGIN </t>
+  </si>
+  <si>
+    <t>ALTER TABLE Employee
+ADD Salary INT;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE Employee  
+SET Salary =RAND(5)  </t>
+  </si>
+  <si>
+    <t>SELECT Salary,  COUNT(salary) FROM employee Group by Salary;</t>
+  </si>
+  <si>
+    <t>Select * from Employee e WHERE e.departmentid not in (select deptno from Depatment);</t>
+  </si>
+  <si>
+    <t>SELECT department.deptname FROM employee INNER JOIN department ON emp_dept =dpt_code GROUP BY department.deptname HAVING COUNT(employee.employeeid) &gt; 5;</t>
+  </si>
+  <si>
+    <t>delete from Employee 
+where ID not in
+(
+    select min(ID)
+    from Employee 
+    group by Salary 
+);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -521,12 +539,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -541,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -552,14 +576,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:XFD82"/>
+  <dimension ref="A2:XFD84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -851,8 +877,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16384">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:16384" s="11" customFormat="1">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -863,7 +889,7 @@
     </row>
     <row r="5" spans="1:16384" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>17</v>
@@ -50015,8 +50041,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" customFormat="1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:16384" s="11" customFormat="1">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -50057,11 +50083,11 @@
     </row>
     <row r="14" spans="1:16384" customFormat="1" ht="136.5">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:16384" customFormat="1">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:16384" s="11" customFormat="1">
+      <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -50127,7 +50153,7 @@
     </row>
     <row r="28" spans="1:1" ht="123">
       <c r="A28" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -50136,8 +50162,8 @@
     <row r="30" spans="1:1">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:1" s="11" customFormat="1">
+      <c r="A31" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -50168,11 +50194,11 @@
     </row>
     <row r="37" spans="1:1" ht="28.5">
       <c r="A37" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:1" s="11" customFormat="1">
+      <c r="A38" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -50181,215 +50207,225 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="30" customHeight="1">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:1" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:1" ht="188.25" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" s="11" customFormat="1">
+      <c r="A42" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="28.5">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:1" ht="28.5">
+      <c r="A44" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5">
+      <c r="A45" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" s="11" customFormat="1">
+      <c r="A46" s="10" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="4">
-        <v>1</v>
+      <c r="A52" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="2">
-        <v>10000</v>
+      <c r="A53" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="4">
-        <v>15000</v>
+      <c r="A59" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="4" t="s">
-        <v>34</v>
+      <c r="A60" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="4"/>
+      <c r="A61" s="4">
+        <v>15000</v>
+      </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="4"/>
+      <c r="A62" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A63" s="4"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="2" t="s">
-        <v>37</v>
+    <row r="65" spans="1:1" s="11" customFormat="1">
+      <c r="A65" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="109.5">
-      <c r="A67" s="3" t="s">
-        <v>39</v>
+    <row r="67" spans="1:1" s="11" customFormat="1">
+      <c r="A67" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="4" t="s">
-        <v>40</v>
+      <c r="A68" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="4">
-        <v>1</v>
+    <row r="69" spans="1:1" ht="109.5">
+      <c r="A69" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="2" t="s">
-        <v>41</v>
+      <c r="A70" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="2" t="s">
-        <v>42</v>
+      <c r="A71" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="2">
-        <v>20</v>
+      <c r="A72" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="69">
-      <c r="A74" s="3" t="s">
-        <v>44</v>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2">
+        <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="2" t="s">
-        <v>45</v>
+    <row r="75" spans="1:1" s="11" customFormat="1">
+      <c r="A75" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="2" t="s">
-        <v>46</v>
+    <row r="76" spans="1:1" ht="69">
+      <c r="A76" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="2" t="s">
-        <v>47</v>
+    <row r="77" spans="1:1" s="11" customFormat="1">
+      <c r="A77" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="2" t="s">
-        <v>49</v>
+    <row r="79" spans="1:1" s="11" customFormat="1">
+      <c r="A79" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="163.5">
-      <c r="A80" s="3" t="s">
-        <v>50</v>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="2" t="s">
-        <v>51</v>
+    <row r="81" spans="1:1" s="11" customFormat="1">
+      <c r="A81" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="105">
-      <c r="A82" s="8" t="s">
-        <v>52</v>
+    <row r="82" spans="1:1" ht="163.5">
+      <c r="A82" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" s="11" customFormat="1">
+      <c r="A83" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="105">
+      <c r="A84" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
